--- a/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -10243,13 +10243,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>28019</v>
+        <v>28020</v>
       </c>
       <c r="D193" t="n">
         <v>3021</v>
       </c>
       <c r="E193" t="n">
-        <v>247864342</v>
+        <v>247868466</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>8766</v>
+        <v>8768</v>
       </c>
       <c r="D201" t="n">
         <v>1106</v>
       </c>
       <c r="E201" t="n">
-        <v>30579453</v>
+        <v>30583596</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17552</v>
+        <v>17556</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38617029</v>
+        <v>38619107</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5676</v>
+        <v>5678</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17154135</v>
+        <v>17162226</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58624</v>
+        <v>58626</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334378061</v>
+        <v>334438707</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18670</v>
+        <v>18672</v>
       </c>
       <c r="D818" t="n">
         <v>4377</v>
       </c>
       <c r="E818" t="n">
-        <v>59929622</v>
+        <v>59941711</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108613</v>
+        <v>108618</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>560855680</v>
+        <v>561056163</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90257</v>
+        <v>90258</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232666323</v>
+        <v>232755209</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182211</v>
+        <v>182221</v>
       </c>
       <c r="D854" t="n">
         <v>17496</v>
       </c>
       <c r="E854" t="n">
-        <v>1647962503</v>
+        <v>1648199011</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60055</v>
+        <v>60056</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288571901</v>
+        <v>288573687</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23234</v>
+        <v>23235</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82760037</v>
+        <v>82768537</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183881</v>
+        <v>183885</v>
       </c>
       <c r="D858" t="n">
         <v>35382</v>
       </c>
       <c r="E858" t="n">
-        <v>553096437</v>
+        <v>553636552</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51315</v>
+        <v>51316</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>423597227</v>
+        <v>423616728</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34652</v>
+        <v>34653</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70065132</v>
+        <v>70066583</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114969</v>
+        <v>114971</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418377311</v>
+        <v>418387736</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44821,13 +44821,13 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>25065</v>
+        <v>25067</v>
       </c>
       <c r="D871" t="n">
         <v>2823</v>
       </c>
       <c r="E871" t="n">
-        <v>160324122</v>
+        <v>160374418</v>
       </c>
       <c r="F871" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127498</v>
+        <v>127500</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277436117</v>
+        <v>277441100</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32743</v>
+        <v>32744</v>
       </c>
       <c r="D888" t="n">
         <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189676893</v>
+        <v>189686893</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -45739,13 +45739,13 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>9190</v>
+        <v>9191</v>
       </c>
       <c r="D889" t="n">
         <v>1689</v>
       </c>
       <c r="E889" t="n">
-        <v>23306787</v>
+        <v>23312012</v>
       </c>
       <c r="F889" t="inlineStr">
         <is>
@@ -45943,13 +45943,13 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>11666</v>
+        <v>11668</v>
       </c>
       <c r="D893" t="n">
         <v>1921</v>
       </c>
       <c r="E893" t="n">
-        <v>54535053</v>
+        <v>54559114</v>
       </c>
       <c r="F893" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23633</v>
+        <v>23634</v>
       </c>
       <c r="D896" t="n">
         <v>3067</v>
       </c>
       <c r="E896" t="n">
-        <v>70444916</v>
+        <v>70454916</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -48187,13 +48187,13 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>19627</v>
+        <v>19628</v>
       </c>
       <c r="D937" t="n">
         <v>4565</v>
       </c>
       <c r="E937" t="n">
-        <v>66765616</v>
+        <v>66965616</v>
       </c>
       <c r="F937" t="inlineStr">
         <is>
@@ -61294,13 +61294,13 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>25252</v>
+        <v>25253</v>
       </c>
       <c r="D1194" t="n">
         <v>5886</v>
       </c>
       <c r="E1194" t="n">
-        <v>46023941</v>
+        <v>46025005</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41899</v>
+        <v>41900</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114575135</v>
+        <v>114577385</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
@@ -83887,13 +83887,13 @@
         </is>
       </c>
       <c r="C1637" t="n">
-        <v>11818</v>
+        <v>11821</v>
       </c>
       <c r="D1637" t="n">
         <v>1283</v>
       </c>
       <c r="E1637" t="n">
-        <v>72015481</v>
+        <v>72045481</v>
       </c>
       <c r="F1637" t="inlineStr">
         <is>
@@ -84805,13 +84805,13 @@
         </is>
       </c>
       <c r="C1655" t="n">
-        <v>43638</v>
+        <v>43640</v>
       </c>
       <c r="D1655" t="n">
         <v>5001</v>
       </c>
       <c r="E1655" t="n">
-        <v>274786832</v>
+        <v>274909095</v>
       </c>
       <c r="F1655" t="inlineStr">
         <is>
